--- a/gg/INVStatus.xlsx
+++ b/gg/INVStatus.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\BN3PEPF0000C53E\EXCELCNV\958958d0-4f29-4687-bd8d-2dd560fadd11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5607A463-26CD-468D-9C0B-84C0499ECB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="alexandrod"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{034776C0-ECC9-4C39-8FC0-C63CA843F8D7}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="15480" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="in" sheetId="1" r:id="rId1"/>
+    <sheet name="in" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1751739143" val="1224" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1751739143" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1751739143" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1751739143"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="104">
   <si>
     <t>Project ID</t>
   </si>
@@ -212,7 +199,7 @@
     <t>GG1984515</t>
   </si>
   <si>
-    <t>Gros Marin Water and Hygiene Program</t>
+    <t>Corail Water and Hygiene Program</t>
   </si>
   <si>
     <t>District Designated Fund (DDF) 7570</t>
@@ -249,9 +236,6 @@
   </si>
   <si>
     <t>Rotary Club of Barboursville</t>
-  </si>
-  <si>
-    <t>Corail Water and Hygiene Program</t>
   </si>
   <si>
     <t>GG2123289</t>
@@ -356,144 +340,298 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+  </numFmts>
   <fonts count="18">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <color rgb="FF44546A"/>
+      <sz val="18"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+            <pm:latin face="Calibri Light" sz="360" lang="default"/>
+            <pm:cs face="Basic Roman" sz="360" lang="default"/>
+            <pm:ea face="Basic Roman" sz="360" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="15"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="300" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="300" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="13"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="260" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="260" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="006100" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="9C0006" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="9C5700" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="3F3F76" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="3F3F3F" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FA7D00" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FA7D00" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FFFFFF" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FF0000" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="7F7F7F" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FFFFFF" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,213 +639,512 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE3D5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFC7C7C7"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFF2CA"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFE697"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFD964"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFE1EFD8"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC5DFB3"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFA8D08C"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="38">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="4472C4"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF9FB7E1"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="9FB7E1"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF8EA9DB"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="8EA9DB"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -722,7 +1159,16 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -737,16 +1183,61 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="double">
@@ -761,7 +1252,16 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+            <pm:line position="right" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
       <left style="thin">
@@ -776,119 +1276,676 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="4472C4"/>
+            <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="4472C4"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="8"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="9"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="10"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="11"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="12"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="13"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="15"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="17"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" xfId="18"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="19"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="20"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="21"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="22"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="23"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="24"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="25"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="22" xfId="26"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="27"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="28"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="25" xfId="29"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="26" xfId="30"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="31"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="32"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="33"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="30" xfId="34"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="31" xfId="35"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="36"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="37"/>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="34" xfId="38"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="35" xfId="39"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="36" xfId="40"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="37" xfId="41"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1751739143" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1751739143" count="40">
+        <pm:color name="Color 24" rgb="44546A"/>
+        <pm:color name="Color 25" rgb="006100"/>
+        <pm:color name="Color 26" rgb="9C0006"/>
+        <pm:color name="Color 27" rgb="9C5700"/>
+        <pm:color name="Color 28" rgb="3F3F76"/>
+        <pm:color name="Color 29" rgb="3F3F3F"/>
+        <pm:color name="Color 30" rgb="FA7D00"/>
+        <pm:color name="Color 31" rgb="C6EFCE"/>
+        <pm:color name="Color 32" rgb="FFC7CE"/>
+        <pm:color name="Color 33" rgb="FFEB9C"/>
+        <pm:color name="Color 34" rgb="FFCC99"/>
+        <pm:color name="Color 35" rgb="F2F2F2"/>
+        <pm:color name="Color 36" rgb="A5A5A5"/>
+        <pm:color name="Color 37" rgb="FFFFCC"/>
+        <pm:color name="Color 38" rgb="4472C4"/>
+        <pm:color name="Color 39" rgb="D9E1F2"/>
+        <pm:color name="Color 40" rgb="B4C6E7"/>
+        <pm:color name="Color 41" rgb="8EA9DB"/>
+        <pm:color name="Color 42" rgb="ED7D31"/>
+        <pm:color name="Color 43" rgb="FBE3D5"/>
+        <pm:color name="Color 44" rgb="F8CAAB"/>
+        <pm:color name="Color 45" rgb="F4AF82"/>
+        <pm:color name="Color 46" rgb="EBEBEB"/>
+        <pm:color name="Color 47" rgb="D9D9D9"/>
+        <pm:color name="Color 48" rgb="C7C7C7"/>
+        <pm:color name="Color 49" rgb="FFC000"/>
+        <pm:color name="Color 50" rgb="FFF2CA"/>
+        <pm:color name="Color 51" rgb="FFE697"/>
+        <pm:color name="Color 52" rgb="FFD964"/>
+        <pm:color name="Color 53" rgb="5B9BD5"/>
+        <pm:color name="Color 54" rgb="DDEBF7"/>
+        <pm:color name="Color 55" rgb="BDD7EE"/>
+        <pm:color name="Color 56" rgb="9BC2E6"/>
+        <pm:color name="Color 57" rgb="70AD47"/>
+        <pm:color name="Color 58" rgb="E1EFD8"/>
+        <pm:color name="Color 59" rgb="C5DFB3"/>
+        <pm:color name="Color 60" rgb="A8D08C"/>
+        <pm:color name="Color 61" rgb="9FB7E1"/>
+        <pm:color name="Color 62" rgb="FF8001"/>
+        <pm:color name="Color 63" rgb="B2B2B2"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -905,140 +1962,46 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1050,161 +2013,216 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928A2BB5-1AF9-4F87-84BA-D4E508D53689}">
-  <dimension ref="A1:H115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.428571" customWidth="1"/>
+    <col min="2" max="2" width="39.857143" customWidth="1"/>
+    <col min="3" max="3" width="12.285714" customWidth="1"/>
+    <col min="4" max="4" width="16.285714" customWidth="1"/>
+    <col min="5" max="5" width="18.142857" customWidth="1"/>
+    <col min="6" max="6" width="55.714286" customWidth="1"/>
+    <col min="7" max="7" width="12.857143" customWidth="1"/>
+    <col min="8" max="8" width="15.000000" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1240,13 +2258,13 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>331378</v>
-      </c>
-      <c r="D2">
-        <v>331378</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D2" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -1255,7 +2273,7 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>145252</v>
       </c>
     </row>
@@ -1266,13 +2284,13 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>331378</v>
-      </c>
-      <c r="D3">
-        <v>331378</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D3" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -1281,7 +2299,7 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>24379</v>
       </c>
     </row>
@@ -1292,13 +2310,13 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>331378</v>
-      </c>
-      <c r="D4">
-        <v>331378</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D4" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="s">
@@ -1307,7 +2325,7 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -1318,13 +2336,13 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>331378</v>
-      </c>
-      <c r="D5">
-        <v>331378</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D5" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="s">
@@ -1333,7 +2351,7 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -1344,13 +2362,13 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>331378</v>
-      </c>
-      <c r="D6">
-        <v>331378</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D6" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="s">
@@ -1359,7 +2377,7 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -1370,13 +2388,13 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>331378</v>
-      </c>
-      <c r="D7">
-        <v>331378</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D7" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -1385,7 +2403,7 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>15000</v>
       </c>
     </row>
@@ -1396,13 +2414,13 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>331378</v>
-      </c>
-      <c r="D8">
-        <v>331378</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D8" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="s">
@@ -1411,7 +2429,7 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>15000</v>
       </c>
     </row>
@@ -1422,13 +2440,13 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>331378</v>
-      </c>
-      <c r="D9">
-        <v>331378</v>
-      </c>
-      <c r="E9">
+      <c r="C9" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D9" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="s">
@@ -1437,7 +2455,7 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>14761</v>
       </c>
     </row>
@@ -1448,13 +2466,13 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>331378</v>
-      </c>
-      <c r="D10">
-        <v>331378</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D10" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="s">
@@ -1463,7 +2481,7 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1474,13 +2492,13 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>331378</v>
-      </c>
-      <c r="D11">
-        <v>331378</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D11" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="s">
@@ -1489,7 +2507,7 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1500,13 +2518,13 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>331378</v>
-      </c>
-      <c r="D12">
-        <v>331378</v>
-      </c>
-      <c r="E12">
+      <c r="C12" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D12" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="s">
@@ -1515,7 +2533,7 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>4000</v>
       </c>
     </row>
@@ -1526,13 +2544,13 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>331378</v>
-      </c>
-      <c r="D13">
-        <v>331378</v>
-      </c>
-      <c r="E13">
+      <c r="C13" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D13" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="s">
@@ -1541,7 +2559,7 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>2856</v>
       </c>
     </row>
@@ -1552,13 +2570,13 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>331378</v>
-      </c>
-      <c r="D14">
-        <v>331378</v>
-      </c>
-      <c r="E14">
+      <c r="C14" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D14" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="s">
@@ -1567,7 +2585,7 @@
       <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>2380</v>
       </c>
     </row>
@@ -1578,13 +2596,13 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>331378</v>
-      </c>
-      <c r="D15">
-        <v>331378</v>
-      </c>
-      <c r="E15">
+      <c r="C15" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D15" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -1593,7 +2611,7 @@
       <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -1604,13 +2622,13 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>331378</v>
-      </c>
-      <c r="D16">
-        <v>331378</v>
-      </c>
-      <c r="E16">
+      <c r="C16" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D16" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="s">
@@ -1619,7 +2637,7 @@
       <c r="G16" t="s">
         <v>26</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -1630,13 +2648,13 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
-        <v>331378</v>
-      </c>
-      <c r="D17">
-        <v>331378</v>
-      </c>
-      <c r="E17">
+      <c r="C17" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D17" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="s">
@@ -1645,7 +2663,7 @@
       <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -1656,13 +2674,13 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>331378</v>
-      </c>
-      <c r="D18">
-        <v>331378</v>
-      </c>
-      <c r="E18">
+      <c r="C18" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D18" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="s">
@@ -1671,7 +2689,7 @@
       <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -1682,13 +2700,13 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>331378</v>
-      </c>
-      <c r="D19">
-        <v>331378</v>
-      </c>
-      <c r="E19">
+      <c r="C19" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D19" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="s">
@@ -1697,7 +2715,7 @@
       <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>1904</v>
       </c>
     </row>
@@ -1708,13 +2726,13 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
-        <v>331378</v>
-      </c>
-      <c r="D20">
-        <v>331378</v>
-      </c>
-      <c r="E20">
+      <c r="C20" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D20" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="s">
@@ -1723,7 +2741,7 @@
       <c r="G20" t="s">
         <v>26</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>1904</v>
       </c>
     </row>
@@ -1734,13 +2752,13 @@
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>331378</v>
-      </c>
-      <c r="D21">
-        <v>331378</v>
-      </c>
-      <c r="E21">
+      <c r="C21" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D21" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="s">
@@ -1749,7 +2767,7 @@
       <c r="G21" t="s">
         <v>26</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>1380</v>
       </c>
     </row>
@@ -1760,13 +2778,13 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>331378</v>
-      </c>
-      <c r="D22">
-        <v>331378</v>
-      </c>
-      <c r="E22">
+      <c r="C22" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D22" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="s">
@@ -1775,7 +2793,7 @@
       <c r="G22" t="s">
         <v>26</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>1355</v>
       </c>
     </row>
@@ -1786,13 +2804,13 @@
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>331378</v>
-      </c>
-      <c r="D23">
-        <v>331378</v>
-      </c>
-      <c r="E23">
+      <c r="C23" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D23" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="s">
@@ -1801,7 +2819,7 @@
       <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -1812,13 +2830,13 @@
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>331378</v>
-      </c>
-      <c r="D24">
-        <v>331378</v>
-      </c>
-      <c r="E24">
+      <c r="C24" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D24" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="s">
@@ -1827,7 +2845,7 @@
       <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -1838,13 +2856,13 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>331378</v>
-      </c>
-      <c r="D25">
-        <v>331378</v>
-      </c>
-      <c r="E25">
+      <c r="C25" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D25" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="s">
@@ -1853,7 +2871,7 @@
       <c r="G25" t="s">
         <v>26</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>952</v>
       </c>
     </row>
@@ -1864,13 +2882,13 @@
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
-        <v>331378</v>
-      </c>
-      <c r="D26">
-        <v>331378</v>
-      </c>
-      <c r="E26">
+      <c r="C26" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D26" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="s">
@@ -1879,7 +2897,7 @@
       <c r="G26" t="s">
         <v>26</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>952</v>
       </c>
     </row>
@@ -1890,13 +2908,13 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
-        <v>331378</v>
-      </c>
-      <c r="D27">
-        <v>331378</v>
-      </c>
-      <c r="E27">
+      <c r="C27" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D27" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="s">
@@ -1905,7 +2923,7 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>952</v>
       </c>
     </row>
@@ -1916,13 +2934,13 @@
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28">
-        <v>331378</v>
-      </c>
-      <c r="D28">
-        <v>331378</v>
-      </c>
-      <c r="E28">
+      <c r="C28" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D28" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="s">
@@ -1931,7 +2949,7 @@
       <c r="G28" t="s">
         <v>26</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>952</v>
       </c>
     </row>
@@ -1942,13 +2960,13 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
-        <v>331378</v>
-      </c>
-      <c r="D29">
-        <v>331378</v>
-      </c>
-      <c r="E29">
+      <c r="C29" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D29" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="s">
@@ -1957,7 +2975,7 @@
       <c r="G29" t="s">
         <v>26</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>952</v>
       </c>
     </row>
@@ -1968,13 +2986,13 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>331378</v>
-      </c>
-      <c r="D30">
-        <v>331378</v>
-      </c>
-      <c r="E30">
+      <c r="C30" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D30" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="s">
@@ -1983,7 +3001,7 @@
       <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>952</v>
       </c>
     </row>
@@ -1994,13 +3012,13 @@
       <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
-        <v>331378</v>
-      </c>
-      <c r="D31">
-        <v>331378</v>
-      </c>
-      <c r="E31">
+      <c r="C31" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D31" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="s">
@@ -2009,7 +3027,7 @@
       <c r="G31" t="s">
         <v>26</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>952</v>
       </c>
     </row>
@@ -2020,13 +3038,13 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>331378</v>
-      </c>
-      <c r="D32">
-        <v>331378</v>
-      </c>
-      <c r="E32">
+      <c r="C32" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D32" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="s">
@@ -2035,7 +3053,7 @@
       <c r="G32" t="s">
         <v>26</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>952</v>
       </c>
     </row>
@@ -2046,13 +3064,13 @@
       <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
-        <v>331378</v>
-      </c>
-      <c r="D33">
-        <v>331378</v>
-      </c>
-      <c r="E33">
+      <c r="C33" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D33" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="s">
@@ -2061,7 +3079,7 @@
       <c r="G33" t="s">
         <v>26</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>952</v>
       </c>
     </row>
@@ -2072,13 +3090,13 @@
       <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
-        <v>331378</v>
-      </c>
-      <c r="D34">
-        <v>331378</v>
-      </c>
-      <c r="E34">
+      <c r="C34" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D34" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="s">
@@ -2087,7 +3105,7 @@
       <c r="G34" t="s">
         <v>26</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>571</v>
       </c>
     </row>
@@ -2098,13 +3116,13 @@
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35">
-        <v>331378</v>
-      </c>
-      <c r="D35">
-        <v>331378</v>
-      </c>
-      <c r="E35">
+      <c r="C35" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D35" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="s">
@@ -2113,7 +3131,7 @@
       <c r="G35" t="s">
         <v>26</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>476</v>
       </c>
     </row>
@@ -2124,13 +3142,13 @@
       <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
-        <v>331378</v>
-      </c>
-      <c r="D36">
-        <v>331378</v>
-      </c>
-      <c r="E36">
+      <c r="C36" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D36" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="s">
@@ -2139,7 +3157,7 @@
       <c r="G36" t="s">
         <v>26</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>250</v>
       </c>
     </row>
@@ -2150,13 +3168,13 @@
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
-        <v>331378</v>
-      </c>
-      <c r="D37">
-        <v>331378</v>
-      </c>
-      <c r="E37">
+      <c r="C37" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D37" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="s">
@@ -2165,7 +3183,7 @@
       <c r="G37" t="s">
         <v>26</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>238</v>
       </c>
     </row>
@@ -2176,13 +3194,13 @@
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
-        <v>331378</v>
-      </c>
-      <c r="D38">
-        <v>331378</v>
-      </c>
-      <c r="E38">
+      <c r="C38" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D38" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="s">
@@ -2191,7 +3209,7 @@
       <c r="G38" t="s">
         <v>26</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>238</v>
       </c>
     </row>
@@ -2202,13 +3220,13 @@
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>331378</v>
-      </c>
-      <c r="D39">
-        <v>331378</v>
-      </c>
-      <c r="E39">
+      <c r="C39" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D39" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="s">
@@ -2217,7 +3235,7 @@
       <c r="G39" t="s">
         <v>26</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>238</v>
       </c>
     </row>
@@ -2228,13 +3246,13 @@
       <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>331378</v>
-      </c>
-      <c r="D40">
-        <v>331378</v>
-      </c>
-      <c r="E40">
+      <c r="C40" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D40" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="s">
@@ -2243,7 +3261,7 @@
       <c r="G40" t="s">
         <v>26</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>238</v>
       </c>
     </row>
@@ -2254,13 +3272,13 @@
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41">
-        <v>331378</v>
-      </c>
-      <c r="D41">
-        <v>331378</v>
-      </c>
-      <c r="E41">
+      <c r="C41" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D41" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="s">
@@ -2269,7 +3287,7 @@
       <c r="G41" t="s">
         <v>26</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>190</v>
       </c>
     </row>
@@ -2280,13 +3298,13 @@
       <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42">
-        <v>331378</v>
-      </c>
-      <c r="D42">
-        <v>331378</v>
-      </c>
-      <c r="E42">
+      <c r="C42" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D42" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="s">
@@ -2295,7 +3313,7 @@
       <c r="G42" t="s">
         <v>26</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2306,13 +3324,13 @@
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
-        <v>331378</v>
-      </c>
-      <c r="D43">
-        <v>331378</v>
-      </c>
-      <c r="E43">
+      <c r="C43" t="n">
+        <v>331378</v>
+      </c>
+      <c r="D43" t="n">
+        <v>331378</v>
+      </c>
+      <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="s">
@@ -2321,7 +3339,7 @@
       <c r="G43" t="s">
         <v>26</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2332,13 +3350,13 @@
       <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>217750</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>217750</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="s">
@@ -2347,7 +3365,7 @@
       <c r="G44" t="s">
         <v>11</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>102250</v>
       </c>
     </row>
@@ -2358,13 +3376,13 @@
       <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>217750</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>217750</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="s">
@@ -2373,7 +3391,7 @@
       <c r="G45" t="s">
         <v>13</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>30500</v>
       </c>
     </row>
@@ -2384,13 +3402,13 @@
       <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>217750</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>217750</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="s">
@@ -2399,7 +3417,7 @@
       <c r="G46" t="s">
         <v>13</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>15000</v>
       </c>
     </row>
@@ -2410,13 +3428,13 @@
       <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>217750</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>217750</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="s">
@@ -2425,7 +3443,7 @@
       <c r="G47" t="s">
         <v>26</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2436,13 +3454,13 @@
       <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>217750</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>217750</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="s">
@@ -2451,7 +3469,7 @@
       <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2462,13 +3480,13 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>217750</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>217750</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="s">
@@ -2477,7 +3495,7 @@
       <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2488,13 +3506,13 @@
       <c r="B50" t="s">
         <v>58</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>217750</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>217750</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="s">
@@ -2503,7 +3521,7 @@
       <c r="G50" t="s">
         <v>13</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2514,13 +3532,13 @@
       <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>217750</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>217750</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="s">
@@ -2529,7 +3547,7 @@
       <c r="G51" t="s">
         <v>13</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2540,13 +3558,13 @@
       <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>217750</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>217750</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="s">
@@ -2555,7 +3573,7 @@
       <c r="G52" t="s">
         <v>21</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>5000</v>
       </c>
     </row>
@@ -2566,13 +3584,13 @@
       <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>217750</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>217750</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="s">
@@ -2581,7 +3599,7 @@
       <c r="G53" t="s">
         <v>13</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>3500</v>
       </c>
     </row>
@@ -2592,13 +3610,13 @@
       <c r="B54" t="s">
         <v>58</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>217750</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>217750</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="s">
@@ -2607,7 +3625,7 @@
       <c r="G54" t="s">
         <v>21</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>3450</v>
       </c>
     </row>
@@ -2618,13 +3636,13 @@
       <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>217750</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>217750</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="s">
@@ -2633,7 +3651,7 @@
       <c r="G55" t="s">
         <v>26</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -2644,13 +3662,13 @@
       <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>217750</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>217750</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="s">
@@ -2659,7 +3677,7 @@
       <c r="G56" t="s">
         <v>26</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -2670,13 +3688,13 @@
       <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>217750</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>217750</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="s">
@@ -2685,7 +3703,7 @@
       <c r="G57" t="s">
         <v>26</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2696,13 +3714,13 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>217750</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>217750</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="s">
@@ -2711,7 +3729,7 @@
       <c r="G58" t="s">
         <v>26</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2722,13 +3740,13 @@
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>217750</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>217750</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="s">
@@ -2737,7 +3755,7 @@
       <c r="G59" t="s">
         <v>21</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2748,13 +3766,13 @@
       <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>217750</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>217750</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="s">
@@ -2763,24 +3781,24 @@
       <c r="G60" t="s">
         <v>26</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61">
-        <v>217750</v>
-      </c>
-      <c r="D61">
-        <v>217750</v>
-      </c>
-      <c r="E61">
+        <v>72</v>
+      </c>
+      <c r="C61" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D61" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="s">
@@ -2789,1415 +3807,997 @@
       <c r="G61" t="s">
         <v>11</v>
       </c>
-      <c r="H61">
-        <v>102250</v>
+      <c r="H61" t="n">
+        <v>200402</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62">
-        <v>217750</v>
-      </c>
-      <c r="D62">
-        <v>217750</v>
-      </c>
-      <c r="E62">
+        <v>72</v>
+      </c>
+      <c r="C62" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D62" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
-      <c r="H62">
-        <v>30500</v>
+      <c r="H62" t="n">
+        <v>58247</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63">
-        <v>217750</v>
-      </c>
-      <c r="D63">
-        <v>217750</v>
-      </c>
-      <c r="E63">
+        <v>72</v>
+      </c>
+      <c r="C63" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D63" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
-      <c r="H63">
-        <v>15000</v>
+      <c r="H63" t="n">
+        <v>35000</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64">
-        <v>217750</v>
-      </c>
-      <c r="D64">
-        <v>217750</v>
-      </c>
-      <c r="E64">
+        <v>72</v>
+      </c>
+      <c r="C64" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D64" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64">
-        <v>10000</v>
+        <v>13</v>
+      </c>
+      <c r="H64" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>217750</v>
-      </c>
-      <c r="D65">
-        <v>217750</v>
-      </c>
-      <c r="E65">
+        <v>72</v>
+      </c>
+      <c r="C65" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D65" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
-      <c r="H65">
-        <v>10000</v>
+      <c r="H65" t="n">
+        <v>27717</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66">
-        <v>217750</v>
-      </c>
-      <c r="D66">
-        <v>217750</v>
-      </c>
-      <c r="E66">
+        <v>72</v>
+      </c>
+      <c r="C66" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D66" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
-      <c r="H66">
-        <v>10000</v>
+      <c r="H66" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67">
-        <v>217750</v>
-      </c>
-      <c r="D67">
-        <v>217750</v>
-      </c>
-      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="C67" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D67" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
-      <c r="H67">
-        <v>10000</v>
+      <c r="H67" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68">
-        <v>217750</v>
-      </c>
-      <c r="D68">
-        <v>217750</v>
-      </c>
-      <c r="E68">
+        <v>72</v>
+      </c>
+      <c r="C68" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D68" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69">
-        <v>217750</v>
-      </c>
-      <c r="D69">
-        <v>217750</v>
-      </c>
-      <c r="E69">
+        <v>72</v>
+      </c>
+      <c r="C69" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D69" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69">
-        <v>5000</v>
+        <v>13</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70">
-        <v>217750</v>
-      </c>
-      <c r="D70">
-        <v>217750</v>
-      </c>
-      <c r="E70">
+        <v>72</v>
+      </c>
+      <c r="C70" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D70" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
       </c>
-      <c r="H70">
-        <v>3500</v>
+      <c r="H70" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71">
-        <v>217750</v>
-      </c>
-      <c r="D71">
-        <v>217750</v>
-      </c>
-      <c r="E71">
+        <v>72</v>
+      </c>
+      <c r="C71" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D71" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71">
-        <v>3450</v>
+        <v>26</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9524</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <v>217750</v>
-      </c>
-      <c r="D72">
-        <v>217750</v>
-      </c>
-      <c r="E72">
+        <v>72</v>
+      </c>
+      <c r="C72" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D72" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72">
-        <v>2500</v>
+        <v>13</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8940</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>217750</v>
-      </c>
-      <c r="D73">
-        <v>217750</v>
-      </c>
-      <c r="E73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D73" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73">
-        <v>2000</v>
+        <v>13</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5600</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74">
-        <v>217750</v>
-      </c>
-      <c r="D74">
-        <v>217750</v>
-      </c>
-      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D74" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
       </c>
-      <c r="H74">
-        <v>1000</v>
+      <c r="H74" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75">
-        <v>217750</v>
-      </c>
-      <c r="D75">
-        <v>217750</v>
-      </c>
-      <c r="E75">
+        <v>72</v>
+      </c>
+      <c r="C75" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D75" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75">
-        <v>1000</v>
+        <v>13</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76">
-        <v>217750</v>
-      </c>
-      <c r="D76">
-        <v>217750</v>
-      </c>
-      <c r="E76">
+        <v>72</v>
+      </c>
+      <c r="C76" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D76" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76">
-        <v>1000</v>
+        <v>13</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77">
-        <v>217750</v>
-      </c>
-      <c r="D77">
-        <v>217750</v>
-      </c>
-      <c r="E77">
+        <v>72</v>
+      </c>
+      <c r="C77" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D77" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77">
-        <v>550</v>
+        <v>13</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
         <v>72</v>
       </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78">
-        <v>490355</v>
-      </c>
-      <c r="D78">
-        <v>490355</v>
-      </c>
-      <c r="E78">
+      <c r="C78" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D78" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78">
-        <v>200402</v>
+        <v>13</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
         <v>72</v>
       </c>
-      <c r="B79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79">
-        <v>490355</v>
-      </c>
-      <c r="D79">
-        <v>490355</v>
-      </c>
-      <c r="E79">
+      <c r="C79" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D79" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
       </c>
-      <c r="H79">
-        <v>58247</v>
+      <c r="H79" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
         <v>72</v>
       </c>
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80">
-        <v>490355</v>
-      </c>
-      <c r="D80">
-        <v>490355</v>
-      </c>
-      <c r="E80">
+      <c r="C80" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D80" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80">
-        <v>35000</v>
+        <v>26</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2858</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
         <v>72</v>
       </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81">
-        <v>490355</v>
-      </c>
-      <c r="D81">
-        <v>490355</v>
-      </c>
-      <c r="E81">
+      <c r="C81" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D81" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81">
-        <v>30000</v>
+        <v>26</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2762</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
         <v>72</v>
       </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82">
-        <v>490355</v>
-      </c>
-      <c r="D82">
-        <v>490355</v>
-      </c>
-      <c r="E82">
+      <c r="C82" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D82" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82">
-        <v>27717</v>
+        <v>26</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2381</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" t="s">
         <v>72</v>
       </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83">
-        <v>490355</v>
-      </c>
-      <c r="D83">
-        <v>490355</v>
-      </c>
-      <c r="E83">
+      <c r="C83" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D83" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83">
-        <v>15000</v>
+        <v>88</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" t="s">
         <v>72</v>
       </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84">
-        <v>490355</v>
-      </c>
-      <c r="D84">
-        <v>490355</v>
-      </c>
-      <c r="E84">
+      <c r="C84" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D84" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84">
-        <v>15000</v>
+        <v>26</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1905</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
         <v>72</v>
       </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85">
-        <v>490355</v>
-      </c>
-      <c r="D85">
-        <v>490355</v>
-      </c>
-      <c r="E85">
+      <c r="C85" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D85" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85">
-        <v>10000</v>
+        <v>26</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1905</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" t="s">
         <v>72</v>
       </c>
-      <c r="B86" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86">
-        <v>490355</v>
-      </c>
-      <c r="D86">
-        <v>490355</v>
-      </c>
-      <c r="E86">
+      <c r="C86" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D86" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86">
-        <v>10000</v>
+        <v>26</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1905</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
         <v>72</v>
       </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87">
-        <v>490355</v>
-      </c>
-      <c r="D87">
-        <v>490355</v>
-      </c>
-      <c r="E87">
+      <c r="C87" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D87" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87">
-        <v>10000</v>
+        <v>26</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1477</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
         <v>72</v>
       </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88">
-        <v>490355</v>
-      </c>
-      <c r="D88">
-        <v>490355</v>
-      </c>
-      <c r="E88">
+      <c r="C88" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D88" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s">
         <v>26</v>
       </c>
-      <c r="H88">
-        <v>9524</v>
+      <c r="H88" t="n">
+        <v>1429</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" t="s">
         <v>72</v>
       </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89">
-        <v>490355</v>
-      </c>
-      <c r="D89">
-        <v>490355</v>
-      </c>
-      <c r="E89">
+      <c r="C89" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D89" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89">
-        <v>8940</v>
+        <v>26</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1429</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" t="s">
         <v>72</v>
       </c>
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90">
-        <v>490355</v>
-      </c>
-      <c r="D90">
-        <v>490355</v>
-      </c>
-      <c r="E90">
+      <c r="C90" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D90" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90">
-        <v>5600</v>
+        <v>26</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" t="s">
         <v>72</v>
       </c>
-      <c r="B91" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91">
-        <v>490355</v>
-      </c>
-      <c r="D91">
-        <v>490355</v>
-      </c>
-      <c r="E91">
+      <c r="C91" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D91" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G91" t="s">
         <v>26</v>
       </c>
-      <c r="H91">
-        <v>5000</v>
+      <c r="H91" t="n">
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" t="s">
         <v>72</v>
       </c>
-      <c r="B92" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92">
-        <v>490355</v>
-      </c>
-      <c r="D92">
-        <v>490355</v>
-      </c>
-      <c r="E92">
+      <c r="C92" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D92" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92">
-        <v>5000</v>
+        <v>26</v>
+      </c>
+      <c r="H92" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
         <v>72</v>
       </c>
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93">
-        <v>490355</v>
-      </c>
-      <c r="D93">
-        <v>490355</v>
-      </c>
-      <c r="E93">
+      <c r="C93" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D93" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93">
-        <v>5000</v>
+        <v>26</v>
+      </c>
+      <c r="H93" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" t="s">
         <v>72</v>
       </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94">
-        <v>490355</v>
-      </c>
-      <c r="D94">
-        <v>490355</v>
-      </c>
-      <c r="E94">
+      <c r="C94" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D94" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94">
-        <v>5000</v>
+        <v>26</v>
+      </c>
+      <c r="H94" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" t="s">
         <v>72</v>
       </c>
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95">
-        <v>490355</v>
-      </c>
-      <c r="D95">
-        <v>490355</v>
-      </c>
-      <c r="E95">
+      <c r="C95" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D95" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95">
-        <v>5000</v>
+        <v>26</v>
+      </c>
+      <c r="H95" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
         <v>72</v>
       </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96">
-        <v>490355</v>
-      </c>
-      <c r="D96">
-        <v>490355</v>
-      </c>
-      <c r="E96">
+      <c r="C96" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D96" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96">
-        <v>5000</v>
+        <v>26</v>
+      </c>
+      <c r="H96" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s">
         <v>72</v>
       </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97">
-        <v>490355</v>
-      </c>
-      <c r="D97">
-        <v>490355</v>
-      </c>
-      <c r="E97">
+      <c r="C97" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D97" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>26</v>
       </c>
-      <c r="H97">
-        <v>2858</v>
+      <c r="H97" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
         <v>72</v>
       </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98">
-        <v>490355</v>
-      </c>
-      <c r="D98">
-        <v>490355</v>
-      </c>
-      <c r="E98">
+      <c r="C98" t="n">
+        <v>490355</v>
+      </c>
+      <c r="D98" t="n">
+        <v>490355</v>
+      </c>
+      <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G98" t="s">
         <v>26</v>
       </c>
-      <c r="H98">
-        <v>2762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99">
-        <v>490355</v>
-      </c>
-      <c r="D99">
-        <v>490355</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>87</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100">
-        <v>490355</v>
-      </c>
-      <c r="D100">
-        <v>490355</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>88</v>
-      </c>
-      <c r="G100" t="s">
-        <v>89</v>
-      </c>
-      <c r="H100">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101">
-        <v>490355</v>
-      </c>
-      <c r="D101">
-        <v>490355</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>90</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>72</v>
-      </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102">
-        <v>490355</v>
-      </c>
-      <c r="D102">
-        <v>490355</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" t="s">
-        <v>91</v>
-      </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>72</v>
-      </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103">
-        <v>490355</v>
-      </c>
-      <c r="D103">
-        <v>490355</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>92</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>72</v>
-      </c>
-      <c r="B104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104">
-        <v>490355</v>
-      </c>
-      <c r="D104">
-        <v>490355</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>93</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>72</v>
-      </c>
-      <c r="B105" t="s">
-        <v>73</v>
-      </c>
-      <c r="C105">
-        <v>490355</v>
-      </c>
-      <c r="D105">
-        <v>490355</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" t="s">
-        <v>94</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>72</v>
-      </c>
-      <c r="B106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C106">
-        <v>490355</v>
-      </c>
-      <c r="D106">
-        <v>490355</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
-        <v>95</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107">
-        <v>490355</v>
-      </c>
-      <c r="D107">
-        <v>490355</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>96</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" t="s">
-        <v>73</v>
-      </c>
-      <c r="C108">
-        <v>490355</v>
-      </c>
-      <c r="D108">
-        <v>490355</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="s">
-        <v>97</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>72</v>
-      </c>
-      <c r="B109" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109">
-        <v>490355</v>
-      </c>
-      <c r="D109">
-        <v>490355</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" t="s">
-        <v>98</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109">
+      <c r="H98" t="n">
         <v>477</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>72</v>
-      </c>
-      <c r="B110" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110">
-        <v>490355</v>
-      </c>
-      <c r="D110">
-        <v>490355</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>99</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" t="s">
-        <v>73</v>
-      </c>
-      <c r="C111">
-        <v>490355</v>
-      </c>
-      <c r="D111">
-        <v>490355</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" t="s">
-        <v>100</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
-      <c r="H111">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" t="s">
-        <v>73</v>
-      </c>
-      <c r="C112">
-        <v>490355</v>
-      </c>
-      <c r="D112">
-        <v>490355</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
-        <v>101</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113">
-        <v>490355</v>
-      </c>
-      <c r="D113">
-        <v>490355</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" t="s">
-        <v>102</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
-      <c r="H113">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>72</v>
-      </c>
-      <c r="B114" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114">
-        <v>490355</v>
-      </c>
-      <c r="D114">
-        <v>490355</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114" t="s">
-        <v>103</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
-      <c r="B115" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115">
-        <v>490355</v>
-      </c>
-      <c r="D115">
-        <v>490355</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
-        <v>104</v>
-      </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115">
-        <v>477</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751739143" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1751739143" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751739143" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751739143" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gg/INVStatus.xlsx
+++ b/gg/INVStatus.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1751739143" val="1224" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1751739143" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1751739143" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1751739143"/>
+      <pm:revision xmlns:pm="smNativeData" day="1752263219" val="1224" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1752263219" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1752263219" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1752263219"/>
     </ext>
   </extLst>
 </workbook>
@@ -351,7 +351,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -359,7 +359,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -374,7 +374,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -384,12 +384,11 @@
     </font>
     <font>
       <name val="Calibri Light"/>
-      <family val="2"/>
       <color rgb="FF44546A"/>
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri Light" sz="360" lang="default"/>
             <pm:cs face="Basic Roman" sz="360" lang="default"/>
             <pm:ea face="Basic Roman" sz="360" lang="default"/>
@@ -405,7 +404,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="300" lang="default" weight="bold"/>
@@ -421,7 +420,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="260" lang="default" weight="bold"/>
@@ -437,7 +436,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -452,7 +451,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -467,7 +466,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -482,7 +481,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="9C5700" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="9C5700" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -497,7 +496,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -513,7 +512,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -529,7 +528,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -544,7 +543,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -560,7 +559,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -575,7 +574,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -591,7 +590,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
@@ -607,7 +606,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -622,8 +621,24 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751739143" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1752263219" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
           </pm:charSpec>
@@ -653,7 +668,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -664,7 +679,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -675,7 +690,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -686,7 +701,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -697,7 +712,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -708,7 +723,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -722,7 +737,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -733,7 +748,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -747,7 +762,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -758,7 +773,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -769,7 +784,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -780,7 +795,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -791,7 +806,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -802,7 +817,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -813,7 +828,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -824,7 +839,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -835,7 +850,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -846,7 +861,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -857,7 +872,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -868,7 +883,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -879,7 +894,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -890,7 +905,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -901,7 +916,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -912,7 +927,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -923,7 +938,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -934,7 +949,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -945,7 +960,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -956,7 +971,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -967,7 +982,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -978,7 +993,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -989,7 +1004,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1000,7 +1015,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751739143" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1752263219" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1022,7 +1037,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1041,7 +1056,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="4472C4"/>
           </pm:border>
         </ext>
@@ -1062,7 +1077,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="9FB7E1"/>
           </pm:border>
         </ext>
@@ -1083,7 +1098,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="8EA9DB"/>
           </pm:border>
         </ext>
@@ -1104,7 +1119,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1123,7 +1138,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1142,7 +1157,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1161,7 +1176,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1185,7 +1200,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1209,7 +1224,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1233,7 +1248,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1254,7 +1269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1278,7 +1293,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1302,7 +1317,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143">
+          <pm:border xmlns:pm="smNativeData" id="1752263219">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="4472C4"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="4472C4"/>
           </pm:border>
@@ -1324,7 +1339,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1343,7 +1358,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1362,7 +1377,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1381,7 +1396,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1400,7 +1415,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1419,7 +1434,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1438,7 +1453,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1457,7 +1472,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1476,7 +1491,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1495,7 +1510,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1514,7 +1529,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1533,7 +1548,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1552,7 +1567,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1571,7 +1586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1590,7 +1605,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1609,7 +1624,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1628,7 +1643,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1647,7 +1662,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1666,7 +1681,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1685,7 +1700,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1704,7 +1719,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1723,7 +1738,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1742,7 +1757,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1761,7 +1776,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751739143"/>
+          <pm:border xmlns:pm="smNativeData" id="1752263219"/>
         </ext>
       </extLst>
     </border>
@@ -1810,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
@@ -1853,6 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="35" xfId="39"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="36" xfId="40"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="37" xfId="41"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1901,10 +1917,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1751739143" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1752263219" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1751739143" count="40">
+      <pm:colors xmlns:pm="smNativeData" id="1752263219" count="40">
         <pm:color name="Color 24" rgb="44546A"/>
         <pm:color name="Color 25" rgb="006100"/>
         <pm:color name="Color 26" rgb="9C0006"/>
@@ -2209,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2226,28 +2242,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4777,7 +4793,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751739143" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1752263219" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4786,14 +4802,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751739143" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751739143" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1752263219" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1752263219" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751739143" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1752263219" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
